--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G5_Backlog_v1.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G5_Backlog_v1.0.xlsx
@@ -83,9 +83,6 @@
     <t>La información del horario de trabajo se encuentra dispuesta sobre la plantilla en formato PDF para su vista preliminar.</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
     <t>Prioridad</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
     <t>REQ002-1</t>
   </si>
   <si>
@@ -179,7 +179,21 @@
     <t>Total de Horas</t>
   </si>
   <si>
-    <t xml:space="preserve">Conclusion: </t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Conclusión:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Algunas tareas de cada sprint tomaron una mayor cantidad del tiempo estimado, debido a correcciones que se realizaron durante el desarrollo de cada actividad.</t>
+    </r>
   </si>
   <si>
     <t>Horas Estimadas</t>
@@ -342,7 +356,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -455,11 +469,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="565475371"/>
-        <c:axId val="256293817"/>
+        <c:axId val="1877922125"/>
+        <c:axId val="1063769732"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="565475371"/>
+        <c:axId val="1877922125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,10 +525,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256293817"/>
+        <c:crossAx val="1063769732"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256293817"/>
+        <c:axId val="1063769732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +603,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565475371"/>
+        <c:crossAx val="1877922125"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -989,7 +1003,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -28960,7 +28974,7 @@
     <row r="2" ht="15.75" customHeight="1"/>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>1</v>
@@ -28969,17 +28983,17 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="62.25" customHeight="1">
@@ -29011,28 +29025,28 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16">
@@ -29041,13 +29055,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="17">
@@ -29056,13 +29070,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="15">
@@ -29071,13 +29085,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15">
@@ -29086,7 +29100,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>1</v>
@@ -29095,19 +29109,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="51.75" customHeight="1">
@@ -29130,7 +29144,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>15</v>
@@ -29139,17 +29153,17 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -29157,10 +29171,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="16">
@@ -29175,7 +29189,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="16">
@@ -29187,10 +29201,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="15">
@@ -29202,10 +29216,10 @@
         <v>45</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="15">
@@ -30254,7 +30268,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>47</v>
@@ -30277,7 +30291,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="19">
         <v>1.0</v>
@@ -30307,7 +30321,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="22">
         <v>2.0</v>
@@ -30335,7 +30349,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="22">
         <v>1.0</v>
@@ -30363,7 +30377,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="22">
         <v>3.0</v>
@@ -31550,6 +31564,9 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L4:N10"/>
+  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
